--- a/baseline/us_result.xlsx
+++ b/baseline/us_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuzheyang/Library/Mobile Documents/3L68KQB4HG~com~readdle~CommonDocuments/Documents/CUHKSZ/Research Learning/RL-code/baseline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55447784-2E78-784F-9BDC-33471C1C46AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA4BA55-DF79-944C-B255-345A82901395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4820" yWindow="-21100" windowWidth="24000" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,17 +161,17 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,8 +480,8 @@
   </sheetPr>
   <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -492,237 +492,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="22.5" customHeight="1">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>9.0890000000000004</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>11.847</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>1.149</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>9.0890000000000004</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>11.847</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>1.149</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>9.0890000000000004</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>11.847</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>1.149</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <v>6.5190000000000001</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="7">
         <v>8.6310000000000002</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="7">
         <v>1.284</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="7">
         <v>6.5190000000000001</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="7">
         <v>8.6310000000000002</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="7">
         <v>1.284</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="7">
         <v>6.5190000000000001</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="7">
         <v>8.6310000000000002</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="7">
         <v>1.284</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>7.7949999999999999</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>10.468</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>1.2110000000000001</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>8.1229999999999993</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>10.824</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>1.224</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>8.4789999999999992</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>11.237</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>1.216</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <v>5.5609999999999999</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="7">
         <v>7.6559999999999997</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="7">
         <v>1.129</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="7">
         <v>5.8170000000000002</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="7">
         <v>7.9249999999999998</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="7">
         <v>1.1399999999999999</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="7">
         <v>6.165</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="7">
         <v>8.3040000000000003</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="7">
         <v>1.129</v>
       </c>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>10.507999999999999</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>13.894</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>2.4359999999999999</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>10.481</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>13.863</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>2.419</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>10.599</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>14.02</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>2.48</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <v>7.6070000000000002</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <v>10.548999999999999</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="7">
         <v>1.133</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="7">
         <v>7.5869999999999997</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="7">
         <v>10.551</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <v>1.123</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="7">
         <v>7.6529999999999996</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="7">
         <v>10.643000000000001</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="7">
         <v>1.1419999999999999</v>
       </c>
       <c r="T5" s="1"/>
@@ -731,180 +731,72 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>9.9039999999999999</v>
-      </c>
-      <c r="C6" s="3">
-        <v>12.457000000000001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="E6" s="3">
-        <v>10.315</v>
-      </c>
-      <c r="F6" s="3">
-        <v>12.871</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>10.528</v>
-      </c>
-      <c r="I6" s="3">
-        <v>13.113</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.02</v>
-      </c>
-      <c r="K6" s="3">
-        <v>10.185</v>
-      </c>
-      <c r="L6" s="3">
-        <v>12.805</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="N6" s="3">
-        <v>10.474</v>
-      </c>
-      <c r="O6" s="3">
-        <v>13.128</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>10.62</v>
-      </c>
-      <c r="R6" s="3">
-        <v>13.308</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0.93700000000000006</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>9.1440000000000001</v>
-      </c>
-      <c r="C7" s="3">
-        <v>11.769</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="E7" s="3">
-        <v>9.4190000000000005</v>
-      </c>
-      <c r="F7" s="3">
-        <v>12.07</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="H7" s="3">
-        <v>9.86</v>
-      </c>
-      <c r="I7" s="3">
-        <v>12.455</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="K7" s="3">
-        <v>9.3109999999999999</v>
-      </c>
-      <c r="L7" s="3">
-        <v>12.037000000000001</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="N7" s="3">
-        <v>9.5739999999999998</v>
-      </c>
-      <c r="O7" s="3">
-        <v>12.337</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>9.94</v>
-      </c>
-      <c r="R7" s="3">
-        <v>12.747</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0.85199999999999998</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
-        <v>9.3140000000000001</v>
-      </c>
-      <c r="C8" s="3">
-        <v>11.968999999999999</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.0229999999999999</v>
-      </c>
-      <c r="E8" s="3">
-        <v>9.5519999999999996</v>
-      </c>
-      <c r="F8" s="3">
-        <v>12.22</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1.0369999999999999</v>
-      </c>
-      <c r="H8" s="3">
-        <v>9.9860000000000007</v>
-      </c>
-      <c r="I8" s="3">
-        <v>12.629</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="K8" s="3">
-        <v>9.7349999999999994</v>
-      </c>
-      <c r="L8" s="3">
-        <v>12.506</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.878</v>
-      </c>
-      <c r="N8" s="3">
-        <v>9.9039999999999999</v>
-      </c>
-      <c r="O8" s="3">
-        <v>12.771000000000001</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>10.760999999999999</v>
-      </c>
-      <c r="R8" s="3">
-        <v>13.426</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0.71399999999999997</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="21.75" customHeight="1">
@@ -3037,5 +2929,6 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>